--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3516.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3516.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.49421720708674</v>
+        <v>2.103302717208862</v>
       </c>
       <c r="B1">
-        <v>2.692913331804452</v>
+        <v>2.633480548858643</v>
       </c>
       <c r="C1">
-        <v>3.398906164833197</v>
+        <v>2.02814245223999</v>
       </c>
       <c r="D1">
-        <v>3.922283605656627</v>
+        <v>1.819197773933411</v>
       </c>
       <c r="E1">
-        <v>1.463587923402531</v>
+        <v>1.830005526542664</v>
       </c>
     </row>
   </sheetData>
